--- a/Documentos/armas.xlsx
+++ b/Documentos/armas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="0" windowWidth="25600" windowHeight="16480" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ARMAS" sheetId="1" r:id="rId1"/>
@@ -15,6 +20,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
   <si>
     <t xml:space="preserve">Alcance </t>
   </si>
@@ -461,6 +469,12 @@
   </si>
   <si>
     <t>JUGADOR 3</t>
+  </si>
+  <si>
+    <t>Duración de zona dañada</t>
+  </si>
+  <si>
+    <t>10s</t>
   </si>
 </sst>
 </file>
@@ -630,6 +644,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -955,13 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -974,7 +993,7 @@
     <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1001,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -1152,7 +1171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,7 +1200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1213,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1223,7 +1242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1252,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1265,7 +1284,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1294,7 +1313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30">
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1436,17 +1455,41 @@
         <v>64</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1458,7 +1501,7 @@
       <selection activeCell="D12" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
@@ -1466,7 +1509,7 @@
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>143</v>
@@ -1478,7 +1521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>72</v>
       </c>
@@ -1492,7 +1535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -1506,7 +1549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
@@ -1514,7 +1557,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -1528,7 +1571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -1542,7 +1585,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -1556,7 +1599,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -1570,7 +1613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -1584,7 +1627,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -1598,7 +1641,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -1615,11 +1658,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1631,7 +1669,7 @@
       <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1640,7 +1678,7 @@
     <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -1654,7 +1692,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -1671,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -1688,7 +1726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -1705,7 +1743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -1722,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -1739,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -1756,7 +1794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -1776,11 +1814,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1792,43 +1825,38 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="77.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1836,17 +1864,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1854,7 +1882,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1865,7 +1893,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -1873,12 +1901,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -1889,7 +1917,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1900,7 +1928,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -1911,7 +1939,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1919,7 +1947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -1930,7 +1958,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -1941,7 +1969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1949,7 +1977,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1957,7 +1985,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1968,10 +1996,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Documentos/armas.xlsx
+++ b/Documentos/armas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stoycho/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,6 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
-  <si>
-    <t xml:space="preserve">Alcance </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
   <si>
     <t>Pistola de agua</t>
   </si>
@@ -75,9 +69,6 @@
     <t>medio</t>
   </si>
   <si>
-    <t>corto</t>
-  </si>
-  <si>
     <t>largo</t>
   </si>
   <si>
@@ -105,33 +96,9 @@
     <t>zona</t>
   </si>
   <si>
-    <t>__del proyectil</t>
-  </si>
-  <si>
-    <t>ruido (alcance)</t>
-  </si>
-  <si>
-    <t>bajo</t>
-  </si>
-  <si>
-    <t>alto</t>
-  </si>
-  <si>
-    <t>__del arma</t>
-  </si>
-  <si>
-    <t>muy bajo</t>
-  </si>
-  <si>
     <t>Animación</t>
   </si>
   <si>
-    <t>__al chocar</t>
-  </si>
-  <si>
-    <t>__sin chocar</t>
-  </si>
-  <si>
     <t>salpica al objetivo</t>
   </si>
   <si>
@@ -475,6 +442,48 @@
   </si>
   <si>
     <t>10s</t>
+  </si>
+  <si>
+    <t>10 (medio)</t>
+  </si>
+  <si>
+    <t>5 (corto)</t>
+  </si>
+  <si>
+    <t>15 (largo)</t>
+  </si>
+  <si>
+    <t>2 (muy bajo)</t>
+  </si>
+  <si>
+    <t>Colisión</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Si y rebota</t>
+  </si>
+  <si>
+    <t>Si y se queda pegado</t>
+  </si>
+  <si>
+    <t>al chocar</t>
+  </si>
+  <si>
+    <t>sin chocar</t>
+  </si>
+  <si>
+    <t>del proyectil</t>
+  </si>
+  <si>
+    <t>del arma</t>
+  </si>
+  <si>
+    <t>ruido (alcance en casillas)</t>
+  </si>
+  <si>
+    <t>Alcance (casillas)</t>
   </si>
 </sst>
 </file>
@@ -580,7 +589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,6 +608,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -974,15 +986,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
@@ -996,62 +1008,62 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0.2</v>
@@ -1066,7 +1078,7 @@
         <v>0.02</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -1075,12 +1087,12 @@
         <v>0.8</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
@@ -1107,21 +1119,21 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1141,68 +1153,68 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1214,17 +1226,17 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
+      <c r="A9" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1239,228 +1251,228 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
+      <c r="A10" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1468,22 +1480,51 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>147</v>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="3">
+        <v>54</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1512,46 +1553,46 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1559,100 +1600,100 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1680,21 +1721,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1711,44 +1752,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1762,16 +1803,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1779,7 +1820,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1788,27 +1829,27 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1832,27 +1873,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1876,121 +1917,121 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/armas.xlsx
+++ b/Documentos/armas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="153">
   <si>
     <t>Pistola de agua</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Alcance (casillas)</t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -988,25 +991,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>150</v>
       </c>
@@ -1325,7 +1328,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>146</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>147</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -1906,7 +1909,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
